--- a/biology/Médecine/Électrocution/Électrocution.xlsx
+++ b/biology/Médecine/Électrocution/Électrocution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrocution</t>
+          <t>Électrocution</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'électrocution est « l'action de causer une secousse généralement mortelle par le passage d'un courant électrique »[1] chez l'animal, humain inclus. Dans un cas défavorable[N 1], un courant alternatif de 75 mA à 50 ou 60 Hz traversant le cœur d'un être vivant durant une seconde, peut provoquer une fibrillation ventriculaire, létale sauf intervention très rapide.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'électrocution est « l'action de causer une secousse généralement mortelle par le passage d'un courant électrique » chez l'animal, humain inclus. Dans un cas défavorable[N 1], un courant alternatif de 75 mA à 50 ou 60 Hz traversant le cœur d'un être vivant durant une seconde, peut provoquer une fibrillation ventriculaire, létale sauf intervention très rapide.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lectrocution</t>
+          <t>Électrocution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Définitions alternatives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Petit Larousse donne la définition suivante : « ensemble des lésions consécutives au passage d'un courant électrique à travers le corps ainsi qu'au dégagement de chaleur concomitant »[2]. Il spécifie toutefois que cette définition est issue du langage courant et la caractérise du terme « abusif ».
-Par contre pour le site Ameli, l'électrocution entraîne le décès[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Petit Larousse donne la définition suivante : « ensemble des lésions consécutives au passage d'un courant électrique à travers le corps ainsi qu'au dégagement de chaleur concomitant ». Il spécifie toutefois que cette définition est issue du langage courant et la caractérise du terme « abusif ».
+Par contre pour le site Ameli, l'électrocution entraîne le décès.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lectrocution</t>
+          <t>Électrocution</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Causes de décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un décès peut être dû à :
 une fibrillation ventriculaire du myocarde, qui entraîne une désynchronisation de la contraction des cellules musculaires (cardiomyocytes) des deux ventricules (processus différent de la « simple » fibrillation auriculaire)[N 2] ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lectrocution</t>
+          <t>Électrocution</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Électrocution utilisée pour réaliser une exécution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrocution peut être une méthode d'exécution, notamment via l'usage de la chaise électrique. Cette méthode est utilisée dans certains pays (notamment dans certains états des États-Unis).
 </t>
